--- a/Jogos_do_Dia/2024-04-03_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-03_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -208,12 +208,12 @@
     <t>16:15:00</t>
   </si>
   <si>
+    <t>16:30:00</t>
+  </si>
+  <si>
     <t>17:00:00</t>
   </si>
   <si>
-    <t>21:00:00</t>
-  </si>
-  <si>
     <t>Levski Krumovgrad</t>
   </si>
   <si>
@@ -247,21 +247,21 @@
     <t>Red Star Belgrade</t>
   </si>
   <si>
+    <t>Konyaspor</t>
+  </si>
+  <si>
+    <t>Kayserispor</t>
+  </si>
+  <si>
     <t>Fenerbahçe</t>
   </si>
   <si>
-    <t>Konyaspor</t>
-  </si>
-  <si>
-    <t>Kayserispor</t>
+    <t>Utrecht</t>
   </si>
   <si>
     <t>Panathinaikos</t>
   </si>
   <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
     <t>Arsenal</t>
   </si>
   <si>
@@ -280,21 +280,21 @@
     <t>Manchester City</t>
   </si>
   <si>
+    <t>Coca-Cola</t>
+  </si>
+  <si>
+    <t>Zamalek</t>
+  </si>
+  <si>
     <t>Ceramica Cleopatra</t>
   </si>
   <si>
+    <t>El Gounah</t>
+  </si>
+  <si>
     <t>Ismaily SC</t>
   </si>
   <si>
-    <t>El Gounah</t>
-  </si>
-  <si>
-    <t>Zamalek</t>
-  </si>
-  <si>
-    <t>Coca-Cola</t>
-  </si>
-  <si>
     <t>Hebar 1918</t>
   </si>
   <si>
@@ -328,21 +328,21 @@
     <t>IMT Novi Beograd</t>
   </si>
   <si>
+    <t>Trabzonspor</t>
+  </si>
+  <si>
+    <t>Kasımpaşa</t>
+  </si>
+  <si>
     <t>Adana Demirspor</t>
   </si>
   <si>
-    <t>Trabzonspor</t>
-  </si>
-  <si>
-    <t>Kasımpaşa</t>
+    <t>PEC Zwolle</t>
   </si>
   <si>
     <t>AEK Athens</t>
   </si>
   <si>
-    <t>PEC Zwolle</t>
-  </si>
-  <si>
     <t>Luton Town</t>
   </si>
   <si>
@@ -361,19 +361,19 @@
     <t>Aston Villa</t>
   </si>
   <si>
+    <t>Al Ahly</t>
+  </si>
+  <si>
+    <t>Baladiyyat Al Mehalla</t>
+  </si>
+  <si>
     <t>Masr</t>
   </si>
   <si>
+    <t>Al Mokawloon</t>
+  </si>
+  <si>
     <t>Smouha SC</t>
-  </si>
-  <si>
-    <t>Al Mokawloon</t>
-  </si>
-  <si>
-    <t>Baladiyyat Al Mehalla</t>
-  </si>
-  <si>
-    <t>Al Ahly</t>
   </si>
 </sst>
 </file>
@@ -901,13 +901,13 @@
         <v>4.75</v>
       </c>
       <c r="J2">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="K2">
-        <v>3.1</v>
+        <v>3.22</v>
       </c>
       <c r="L2">
-        <v>3.95</v>
+        <v>4.08</v>
       </c>
       <c r="M2">
         <v>1.48</v>
@@ -928,10 +928,10 @@
         <v>2.75</v>
       </c>
       <c r="S2">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="T2">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="U2">
         <v>2</v>
@@ -1032,13 +1032,13 @@
         <v>3.4</v>
       </c>
       <c r="J3">
-        <v>2.5</v>
+        <v>2.69</v>
       </c>
       <c r="K3">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L3">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="M3">
         <v>1.44</v>
@@ -1059,10 +1059,10 @@
         <v>2.92</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="T3">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U3">
         <v>1.83</v>
@@ -1163,13 +1163,13 @@
         <v>7</v>
       </c>
       <c r="J4">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="K4">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>7.65</v>
       </c>
       <c r="M4">
         <v>1.44</v>
@@ -1190,10 +1190,10 @@
         <v>3.04</v>
       </c>
       <c r="S4">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="U4">
         <v>2.2</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1321,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1416,61 +1416,61 @@
         <v>97</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.84</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>4.23</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>3.73</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="Z6">
         <v>1.77</v>
@@ -1488,43 +1488,43 @@
         <v>3.43</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1556,13 +1556,13 @@
         <v>7.5</v>
       </c>
       <c r="J7">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="K7">
-        <v>4.75</v>
+        <v>4.24</v>
       </c>
       <c r="L7">
-        <v>8</v>
+        <v>6.62</v>
       </c>
       <c r="M7">
         <v>1.36</v>
@@ -1583,10 +1583,10 @@
         <v>3.6</v>
       </c>
       <c r="S7">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U7">
         <v>2.2</v>
@@ -1687,13 +1687,13 @@
         <v>6</v>
       </c>
       <c r="J8">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="K8">
-        <v>3.6</v>
+        <v>3.68</v>
       </c>
       <c r="L8">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="M8">
         <v>1.4</v>
@@ -1717,7 +1717,7 @@
         <v>1.95</v>
       </c>
       <c r="T8">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="U8">
         <v>2</v>
@@ -1809,61 +1809,61 @@
         <v>100</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Z9">
         <v>1.15</v>
@@ -1881,43 +1881,43 @@
         <v>2.49</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -1949,13 +1949,13 @@
         <v>11</v>
       </c>
       <c r="J10">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="K10">
-        <v>6.5</v>
+        <v>5.4</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>12.17</v>
       </c>
       <c r="M10">
         <v>1.29</v>
@@ -1976,10 +1976,10 @@
         <v>4.75</v>
       </c>
       <c r="S10">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="T10">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
         <v>2.38</v>
@@ -2080,13 +2080,13 @@
         <v>2</v>
       </c>
       <c r="J11">
-        <v>5.5</v>
+        <v>4.54</v>
       </c>
       <c r="K11">
-        <v>4.6</v>
+        <v>3.82</v>
       </c>
       <c r="L11">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="M11">
         <v>1.29</v>
@@ -2107,10 +2107,10 @@
         <v>4.45</v>
       </c>
       <c r="S11">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U11">
         <v>1.7</v>
@@ -2202,61 +2202,61 @@
         <v>103</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="Z12">
         <v>2.69</v>
@@ -2274,43 +2274,43 @@
         <v>3.78</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2333,115 +2333,115 @@
         <v>104</v>
       </c>
       <c r="G13">
-        <v>1.67</v>
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="I13">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="J13">
-        <v>1.25</v>
+        <v>3.17</v>
       </c>
       <c r="K13">
-        <v>5.5</v>
+        <v>3.26</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>2.35</v>
       </c>
       <c r="M13">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="N13">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="O13">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="P13">
-        <v>27</v>
+        <v>10.25</v>
       </c>
       <c r="Q13">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="R13">
-        <v>6.05</v>
+        <v>3.3</v>
       </c>
       <c r="S13">
-        <v>1.41</v>
+        <v>1.99</v>
       </c>
       <c r="T13">
-        <v>2.78</v>
+        <v>1.73</v>
       </c>
       <c r="U13">
+        <v>1.83</v>
+      </c>
+      <c r="V13">
+        <v>1.83</v>
+      </c>
+      <c r="W13">
         <v>1.8</v>
       </c>
-      <c r="V13">
-        <v>1.91</v>
-      </c>
-      <c r="W13">
-        <v>1.06</v>
-      </c>
       <c r="X13">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="Y13">
-        <v>3.6</v>
+        <v>1.33</v>
       </c>
       <c r="Z13">
-        <v>2.4</v>
+        <v>1.36</v>
       </c>
       <c r="AA13">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="AB13">
-        <v>1.92</v>
+        <v>1.35</v>
       </c>
       <c r="AC13">
+        <v>1.26</v>
+      </c>
+      <c r="AD13">
+        <v>2.61</v>
+      </c>
+      <c r="AE13">
+        <v>2.5</v>
+      </c>
+      <c r="AF13">
+        <v>8</v>
+      </c>
+      <c r="AG13">
+        <v>1.73</v>
+      </c>
+      <c r="AH13">
+        <v>1.33</v>
+      </c>
+      <c r="AI13">
+        <v>2.91</v>
+      </c>
+      <c r="AJ13">
+        <v>1.64</v>
+      </c>
+      <c r="AK13">
+        <v>2.12</v>
+      </c>
+      <c r="AL13">
+        <v>2.09</v>
+      </c>
+      <c r="AM13">
+        <v>1.69</v>
+      </c>
+      <c r="AN13">
+        <v>2.76</v>
+      </c>
+      <c r="AO13">
         <v>1.39</v>
       </c>
-      <c r="AD13">
-        <v>3.31</v>
-      </c>
-      <c r="AE13">
-        <v>1.12</v>
-      </c>
-      <c r="AF13">
-        <v>12</v>
-      </c>
-      <c r="AG13">
-        <v>7</v>
-      </c>
-      <c r="AH13">
-        <v>1.23</v>
-      </c>
-      <c r="AI13">
-        <v>3.56</v>
-      </c>
-      <c r="AJ13">
-        <v>1.46</v>
-      </c>
-      <c r="AK13">
-        <v>2.52</v>
-      </c>
-      <c r="AL13">
-        <v>1.8</v>
-      </c>
-      <c r="AM13">
-        <v>1.95</v>
-      </c>
-      <c r="AN13">
-        <v>2.27</v>
-      </c>
-      <c r="AO13">
-        <v>1.56</v>
-      </c>
       <c r="AP13">
-        <v>3.04</v>
+        <v>3.84</v>
       </c>
       <c r="AQ13">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2464,115 +2464,115 @@
         <v>105</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="H14">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="I14">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="J14">
+        <v>2.19</v>
+      </c>
+      <c r="K14">
+        <v>3.69</v>
+      </c>
+      <c r="L14">
+        <v>3.11</v>
+      </c>
+      <c r="M14">
+        <v>1.29</v>
+      </c>
+      <c r="N14">
         <v>3.5</v>
       </c>
-      <c r="K14">
-        <v>3.25</v>
-      </c>
-      <c r="L14">
-        <v>2.05</v>
-      </c>
-      <c r="M14">
-        <v>1.44</v>
-      </c>
-      <c r="N14">
-        <v>2.63</v>
-      </c>
       <c r="O14">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="P14">
-        <v>10.25</v>
+        <v>18.75</v>
       </c>
       <c r="Q14">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="R14">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="S14">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="T14">
-        <v>1.7</v>
+        <v>2.21</v>
       </c>
       <c r="U14">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="V14">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="W14">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="X14">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y14">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="Z14">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="AA14">
         <v>1.4</v>
       </c>
       <c r="AB14">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="AC14">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
       <c r="AD14">
-        <v>2.61</v>
+        <v>2.87</v>
       </c>
       <c r="AE14">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="AF14">
         <v>8</v>
       </c>
       <c r="AG14">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="AH14">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AI14">
-        <v>2.91</v>
+        <v>3.42</v>
       </c>
       <c r="AJ14">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="AK14">
-        <v>2.12</v>
+        <v>2.47</v>
       </c>
       <c r="AL14">
-        <v>2.09</v>
+        <v>1.85</v>
       </c>
       <c r="AM14">
-        <v>1.69</v>
+        <v>1.89</v>
       </c>
       <c r="AN14">
-        <v>2.76</v>
+        <v>2.36</v>
       </c>
       <c r="AO14">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="AP14">
-        <v>3.84</v>
+        <v>3.18</v>
       </c>
       <c r="AQ14">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2595,120 +2595,120 @@
         <v>106</v>
       </c>
       <c r="G15">
-        <v>2.75</v>
+        <v>1.67</v>
       </c>
       <c r="H15">
+        <v>2.88</v>
+      </c>
+      <c r="I15">
+        <v>7.5</v>
+      </c>
+      <c r="J15">
+        <v>1.23</v>
+      </c>
+      <c r="K15">
+        <v>6.76</v>
+      </c>
+      <c r="L15">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="M15">
+        <v>1.22</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>1.01</v>
+      </c>
+      <c r="P15">
+        <v>27</v>
+      </c>
+      <c r="Q15">
+        <v>1.13</v>
+      </c>
+      <c r="R15">
+        <v>6.05</v>
+      </c>
+      <c r="S15">
+        <v>1.41</v>
+      </c>
+      <c r="T15">
+        <v>2.78</v>
+      </c>
+      <c r="U15">
+        <v>1.8</v>
+      </c>
+      <c r="V15">
+        <v>1.91</v>
+      </c>
+      <c r="W15">
+        <v>1.06</v>
+      </c>
+      <c r="X15">
+        <v>1.14</v>
+      </c>
+      <c r="Y15">
+        <v>3.6</v>
+      </c>
+      <c r="Z15">
         <v>2.4</v>
       </c>
-      <c r="I15">
-        <v>3.4</v>
-      </c>
-      <c r="J15">
-        <v>2.1</v>
-      </c>
-      <c r="K15">
-        <v>3.7</v>
-      </c>
-      <c r="L15">
-        <v>3</v>
-      </c>
-      <c r="M15">
-        <v>1.29</v>
-      </c>
-      <c r="N15">
-        <v>3.5</v>
-      </c>
-      <c r="O15">
-        <v>1.03</v>
-      </c>
-      <c r="P15">
-        <v>18.75</v>
-      </c>
-      <c r="Q15">
-        <v>1.17</v>
-      </c>
-      <c r="R15">
-        <v>5.1</v>
-      </c>
-      <c r="S15">
+      <c r="AA15">
+        <v>0.6</v>
+      </c>
+      <c r="AB15">
+        <v>1.92</v>
+      </c>
+      <c r="AC15">
+        <v>1.39</v>
+      </c>
+      <c r="AD15">
+        <v>3.31</v>
+      </c>
+      <c r="AE15">
+        <v>1.12</v>
+      </c>
+      <c r="AF15">
+        <v>12</v>
+      </c>
+      <c r="AG15">
+        <v>7</v>
+      </c>
+      <c r="AH15">
+        <v>1.23</v>
+      </c>
+      <c r="AI15">
+        <v>3.56</v>
+      </c>
+      <c r="AJ15">
+        <v>1.46</v>
+      </c>
+      <c r="AK15">
+        <v>2.52</v>
+      </c>
+      <c r="AL15">
+        <v>1.8</v>
+      </c>
+      <c r="AM15">
+        <v>1.95</v>
+      </c>
+      <c r="AN15">
+        <v>2.27</v>
+      </c>
+      <c r="AO15">
         <v>1.56</v>
       </c>
-      <c r="T15">
-        <v>2.37</v>
-      </c>
-      <c r="U15">
-        <v>1.5</v>
-      </c>
-      <c r="V15">
-        <v>2.5</v>
-      </c>
-      <c r="W15">
-        <v>1.4</v>
-      </c>
-      <c r="X15">
-        <v>1.3</v>
-      </c>
-      <c r="Y15">
-        <v>1.75</v>
-      </c>
-      <c r="Z15">
-        <v>1.6</v>
-      </c>
-      <c r="AA15">
-        <v>1.4</v>
-      </c>
-      <c r="AB15">
-        <v>1.45</v>
-      </c>
-      <c r="AC15">
-        <v>1.42</v>
-      </c>
-      <c r="AD15">
-        <v>2.87</v>
-      </c>
-      <c r="AE15">
-        <v>1.8</v>
-      </c>
-      <c r="AF15">
-        <v>8</v>
-      </c>
-      <c r="AG15">
-        <v>2.3</v>
-      </c>
-      <c r="AH15">
-        <v>1.25</v>
-      </c>
-      <c r="AI15">
-        <v>3.42</v>
-      </c>
-      <c r="AJ15">
-        <v>1.48</v>
-      </c>
-      <c r="AK15">
-        <v>2.47</v>
-      </c>
-      <c r="AL15">
-        <v>1.85</v>
-      </c>
-      <c r="AM15">
-        <v>1.89</v>
-      </c>
-      <c r="AN15">
-        <v>2.36</v>
-      </c>
-      <c r="AO15">
-        <v>1.52</v>
-      </c>
       <c r="AP15">
-        <v>3.18</v>
+        <v>3.04</v>
       </c>
       <c r="AQ15">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="16" spans="1:43">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2">
         <v>45385</v>
@@ -2717,7 +2717,7 @@
         <v>60</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
         <v>80</v>
@@ -2726,120 +2726,120 @@
         <v>107</v>
       </c>
       <c r="G16">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H16">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>1.38</v>
+      </c>
+      <c r="K16">
+        <v>4.42</v>
+      </c>
+      <c r="L16">
+        <v>6.77</v>
+      </c>
+      <c r="M16">
+        <v>1.3</v>
+      </c>
+      <c r="N16">
         <v>3.4</v>
       </c>
-      <c r="J16">
-        <v>2.55</v>
-      </c>
-      <c r="K16">
-        <v>3.1</v>
-      </c>
-      <c r="L16">
-        <v>2.7</v>
-      </c>
-      <c r="M16">
-        <v>1.44</v>
-      </c>
-      <c r="N16">
-        <v>2.63</v>
-      </c>
       <c r="O16">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="P16">
         <v>10</v>
       </c>
       <c r="Q16">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="R16">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="S16">
-        <v>1.91</v>
+        <v>1.66</v>
       </c>
       <c r="T16">
-        <v>1.73</v>
+        <v>2.09</v>
       </c>
       <c r="U16">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W16">
-        <v>1.45</v>
+        <v>1.17</v>
       </c>
       <c r="X16">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="Y16">
-        <v>1.52</v>
+        <v>2.38</v>
       </c>
       <c r="Z16">
-        <v>2.14</v>
+        <v>1.54</v>
       </c>
       <c r="AA16">
-        <v>2.07</v>
+        <v>1.23</v>
       </c>
       <c r="AB16">
-        <v>1.89</v>
+        <v>1.59</v>
       </c>
       <c r="AC16">
-        <v>1.81</v>
+        <v>1.23</v>
       </c>
       <c r="AD16">
-        <v>3.7</v>
+        <v>2.82</v>
       </c>
       <c r="AE16">
+        <v>1.23</v>
+      </c>
+      <c r="AF16">
+        <v>11.75</v>
+      </c>
+      <c r="AG16">
+        <v>5.15</v>
+      </c>
+      <c r="AH16">
+        <v>1.17</v>
+      </c>
+      <c r="AI16">
+        <v>4.25</v>
+      </c>
+      <c r="AJ16">
+        <v>1.35</v>
+      </c>
+      <c r="AK16">
+        <v>2.93</v>
+      </c>
+      <c r="AL16">
+        <v>1.63</v>
+      </c>
+      <c r="AM16">
+        <v>2.19</v>
+      </c>
+      <c r="AN16">
         <v>2</v>
       </c>
-      <c r="AF16">
-        <v>7.5</v>
-      </c>
-      <c r="AG16">
-        <v>2.1</v>
-      </c>
-      <c r="AH16">
-        <v>1.31</v>
-      </c>
-      <c r="AI16">
-        <v>3.04</v>
-      </c>
-      <c r="AJ16">
-        <v>1.59</v>
-      </c>
-      <c r="AK16">
-        <v>2.21</v>
-      </c>
-      <c r="AL16">
-        <v>2.02</v>
-      </c>
-      <c r="AM16">
-        <v>1.74</v>
-      </c>
-      <c r="AN16">
-        <v>2.65</v>
-      </c>
       <c r="AO16">
+        <v>1.72</v>
+      </c>
+      <c r="AP16">
+        <v>2.57</v>
+      </c>
+      <c r="AQ16">
         <v>1.42</v>
-      </c>
-      <c r="AP16">
-        <v>3.64</v>
-      </c>
-      <c r="AQ16">
-        <v>1.22</v>
       </c>
     </row>
     <row r="17" spans="1:43">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2">
         <v>45385</v>
@@ -2848,7 +2848,7 @@
         <v>60</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
         <v>81</v>
@@ -2857,115 +2857,115 @@
         <v>108</v>
       </c>
       <c r="G17">
+        <v>3.2</v>
+      </c>
+      <c r="H17">
         <v>2.1</v>
       </c>
-      <c r="H17">
-        <v>2.4</v>
-      </c>
       <c r="I17">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="J17">
-        <v>1.55</v>
+        <v>2.38</v>
       </c>
       <c r="K17">
-        <v>4.2</v>
+        <v>3.01</v>
       </c>
       <c r="L17">
-        <v>5.5</v>
+        <v>2.65</v>
       </c>
       <c r="M17">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="N17">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="O17">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="P17">
         <v>10</v>
       </c>
       <c r="Q17">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="R17">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="S17">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="T17">
-        <v>2.15</v>
+        <v>1.72</v>
       </c>
       <c r="U17">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V17">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>1.17</v>
+        <v>1.45</v>
       </c>
       <c r="X17">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="Y17">
-        <v>2.38</v>
+        <v>1.52</v>
       </c>
       <c r="Z17">
-        <v>1.54</v>
+        <v>2.14</v>
       </c>
       <c r="AA17">
-        <v>1.23</v>
+        <v>2.07</v>
       </c>
       <c r="AB17">
+        <v>1.89</v>
+      </c>
+      <c r="AC17">
+        <v>1.81</v>
+      </c>
+      <c r="AD17">
+        <v>3.7</v>
+      </c>
+      <c r="AE17">
+        <v>2</v>
+      </c>
+      <c r="AF17">
+        <v>7.5</v>
+      </c>
+      <c r="AG17">
+        <v>2.1</v>
+      </c>
+      <c r="AH17">
+        <v>1.31</v>
+      </c>
+      <c r="AI17">
+        <v>3.04</v>
+      </c>
+      <c r="AJ17">
         <v>1.59</v>
       </c>
-      <c r="AC17">
-        <v>1.23</v>
-      </c>
-      <c r="AD17">
-        <v>2.82</v>
-      </c>
-      <c r="AE17">
-        <v>1.23</v>
-      </c>
-      <c r="AF17">
-        <v>11.75</v>
-      </c>
-      <c r="AG17">
-        <v>5.15</v>
-      </c>
-      <c r="AH17">
-        <v>1.17</v>
-      </c>
-      <c r="AI17">
-        <v>4.25</v>
-      </c>
-      <c r="AJ17">
-        <v>1.35</v>
-      </c>
       <c r="AK17">
-        <v>2.93</v>
+        <v>2.21</v>
       </c>
       <c r="AL17">
-        <v>1.63</v>
+        <v>2.02</v>
       </c>
       <c r="AM17">
-        <v>2.19</v>
+        <v>1.74</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>2.65</v>
       </c>
       <c r="AO17">
-        <v>1.72</v>
+        <v>1.42</v>
       </c>
       <c r="AP17">
-        <v>2.57</v>
+        <v>3.64</v>
       </c>
       <c r="AQ17">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -2997,13 +2997,13 @@
         <v>11</v>
       </c>
       <c r="J18">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="K18">
-        <v>8</v>
+        <v>5.83</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>15.06</v>
       </c>
       <c r="M18">
         <v>1.17</v>
@@ -3128,13 +3128,13 @@
         <v>3</v>
       </c>
       <c r="J19">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="K19">
-        <v>3.75</v>
+        <v>3.62</v>
       </c>
       <c r="L19">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="M19">
         <v>1.29</v>
@@ -3155,10 +3155,10 @@
         <v>5.2</v>
       </c>
       <c r="S19">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="T19">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="U19">
         <v>1.5</v>
@@ -3259,13 +3259,13 @@
         <v>6</v>
       </c>
       <c r="J20">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="L20">
-        <v>9</v>
+        <v>7.84</v>
       </c>
       <c r="M20">
         <v>1.22</v>
@@ -3390,13 +3390,13 @@
         <v>4.33</v>
       </c>
       <c r="J21">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="K21">
-        <v>3.9</v>
+        <v>3.68</v>
       </c>
       <c r="L21">
-        <v>4.75</v>
+        <v>4.11</v>
       </c>
       <c r="M21">
         <v>1.33</v>
@@ -3417,10 +3417,10 @@
         <v>3.75</v>
       </c>
       <c r="S21">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="U21">
         <v>1.7</v>
@@ -3521,13 +3521,13 @@
         <v>2.4</v>
       </c>
       <c r="J22">
-        <v>3.9</v>
+        <v>4.11</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="L22">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="M22">
         <v>1.29</v>
@@ -3548,10 +3548,10 @@
         <v>4.5</v>
       </c>
       <c r="S22">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="T22">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="U22">
         <v>1.57</v>
@@ -3652,13 +3652,13 @@
         <v>7.5</v>
       </c>
       <c r="J23">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="K23">
-        <v>6.5</v>
+        <v>5.17</v>
       </c>
       <c r="L23">
-        <v>10.5</v>
+        <v>7.03</v>
       </c>
       <c r="M23">
         <v>1.2</v>
@@ -3774,76 +3774,76 @@
         <v>115</v>
       </c>
       <c r="G24">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>2.17</v>
+        <v>0.86</v>
       </c>
       <c r="AA24">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AB24">
-        <v>1.82</v>
+        <v>1.15</v>
       </c>
       <c r="AC24">
-        <v>1.19</v>
+        <v>1.9</v>
       </c>
       <c r="AD24">
-        <v>3.01</v>
+        <v>3.05</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -3855,34 +3855,34 @@
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ24">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AK24">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AL24">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="AM24">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AN24">
-        <v>2.53</v>
+        <v>0</v>
       </c>
       <c r="AO24">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AQ24">
-        <v>1.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:43">
@@ -3905,76 +3905,76 @@
         <v>116</v>
       </c>
       <c r="G25">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>2.89</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>6.75</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="AA25">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AB25">
-        <v>1.4</v>
+        <v>1.74</v>
       </c>
       <c r="AC25">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AD25">
-        <v>2.75</v>
+        <v>3.02</v>
       </c>
       <c r="AE25">
         <v>0</v>
@@ -3986,34 +3986,34 @@
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AI25">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AJ25">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AK25">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="AL25">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="AM25">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="AN25">
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="AO25">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="AQ25">
-        <v>1.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -4024,7 +4024,7 @@
         <v>45385</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D26">
         <v>17</v>
@@ -4036,46 +4036,46 @@
         <v>117</v>
       </c>
       <c r="G26">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H26">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="J26">
-        <v>2.62</v>
+        <v>1.83</v>
       </c>
       <c r="K26">
-        <v>2.78</v>
+        <v>3.2</v>
       </c>
       <c r="L26">
-        <v>2.97</v>
+        <v>4.2</v>
       </c>
       <c r="M26">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="N26">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O26">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="P26">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q26">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="R26">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="S26">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="T26">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="U26">
         <v>2.1</v>
@@ -4084,28 +4084,28 @@
         <v>1.67</v>
       </c>
       <c r="W26">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="X26">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Y26">
-        <v>1.47</v>
+        <v>1.8</v>
       </c>
       <c r="Z26">
-        <v>1.29</v>
+        <v>2.17</v>
       </c>
       <c r="AA26">
-        <v>0.75</v>
+        <v>1.63</v>
       </c>
       <c r="AB26">
-        <v>1.41</v>
+        <v>1.82</v>
       </c>
       <c r="AC26">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AD26">
-        <v>2.65</v>
+        <v>3.01</v>
       </c>
       <c r="AE26">
         <v>0</v>
@@ -4123,22 +4123,22 @@
         <v>3</v>
       </c>
       <c r="AJ26">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AK26">
-        <v>2.34</v>
+        <v>2.33</v>
       </c>
       <c r="AL26">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="AM26">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AN26">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AO26">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AP26">
         <v>3.2</v>
@@ -4167,76 +4167,76 @@
         <v>118</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="Z27">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="AA27">
-        <v>1.29</v>
+        <v>0.75</v>
       </c>
       <c r="AB27">
-        <v>1.74</v>
+        <v>1.41</v>
       </c>
       <c r="AC27">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AD27">
-        <v>3.02</v>
+        <v>2.65</v>
       </c>
       <c r="AE27">
         <v>0</v>
@@ -4248,34 +4248,34 @@
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AK27">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -4298,76 +4298,76 @@
         <v>119</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="Z28">
-        <v>0.86</v>
+        <v>1.43</v>
       </c>
       <c r="AA28">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AB28">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="AC28">
-        <v>1.9</v>
+        <v>1.35</v>
       </c>
       <c r="AD28">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="AE28">
         <v>0</v>
@@ -4379,34 +4379,34 @@
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AK28">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AM28">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2024-04-03_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-03_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -160,12 +160,12 @@
     <t>Netherlands Eredivisie</t>
   </si>
   <si>
+    <t>Switzerland Super League</t>
+  </si>
+  <si>
     <t>England Premier League</t>
   </si>
   <si>
-    <t>Switzerland Super League</t>
-  </si>
-  <si>
     <t>Egypt Egyptian Premier League</t>
   </si>
   <si>
@@ -232,60 +232,60 @@
     <t>Olympiakos Piraeus</t>
   </si>
   <si>
+    <t>Spartak Subotica</t>
+  </si>
+  <si>
+    <t>PAOK</t>
+  </si>
+  <si>
     <t>Ludogorets</t>
   </si>
   <si>
-    <t>Spartak Subotica</t>
-  </si>
-  <si>
-    <t>PAOK</t>
-  </si>
-  <si>
     <t>Heracles</t>
   </si>
   <si>
     <t>Red Star Belgrade</t>
   </si>
   <si>
+    <t>Fenerbahçe</t>
+  </si>
+  <si>
     <t>Konyaspor</t>
   </si>
   <si>
     <t>Kayserispor</t>
   </si>
   <si>
-    <t>Fenerbahçe</t>
-  </si>
-  <si>
     <t>Utrecht</t>
   </si>
   <si>
     <t>Panathinaikos</t>
   </si>
   <si>
+    <t>Zürich</t>
+  </si>
+  <si>
+    <t>Servette</t>
+  </si>
+  <si>
     <t>Arsenal</t>
   </si>
   <si>
     <t>Brentford</t>
   </si>
   <si>
-    <t>Servette</t>
-  </si>
-  <si>
-    <t>Zürich</t>
-  </si>
-  <si>
     <t>Heerenveen</t>
   </si>
   <si>
     <t>Manchester City</t>
   </si>
   <si>
+    <t>Zamalek</t>
+  </si>
+  <si>
     <t>Coca-Cola</t>
   </si>
   <si>
-    <t>Zamalek</t>
-  </si>
-  <si>
     <t>Ceramica Cleopatra</t>
   </si>
   <si>
@@ -313,58 +313,58 @@
     <t>Aris</t>
   </si>
   <si>
+    <t>Radnički Niš</t>
+  </si>
+  <si>
+    <t>Lamia</t>
+  </si>
+  <si>
     <t>Levski Sofia</t>
   </si>
   <si>
-    <t>Radnički Niš</t>
-  </si>
-  <si>
-    <t>Lamia</t>
-  </si>
-  <si>
     <t>AZ</t>
   </si>
   <si>
     <t>IMT Novi Beograd</t>
   </si>
   <si>
+    <t>Adana Demirspor</t>
+  </si>
+  <si>
     <t>Trabzonspor</t>
   </si>
   <si>
     <t>Kasımpaşa</t>
   </si>
   <si>
-    <t>Adana Demirspor</t>
-  </si>
-  <si>
     <t>PEC Zwolle</t>
   </si>
   <si>
     <t>AEK Athens</t>
   </si>
   <si>
+    <t>Winterthur</t>
+  </si>
+  <si>
+    <t>Stade Lausanne-Ouchy</t>
+  </si>
+  <si>
     <t>Luton Town</t>
   </si>
   <si>
     <t>Brighton &amp; Hove Albion</t>
   </si>
   <si>
-    <t>Stade Lausanne-Ouchy</t>
-  </si>
-  <si>
-    <t>Winterthur</t>
-  </si>
-  <si>
     <t>Twente</t>
   </si>
   <si>
     <t>Aston Villa</t>
   </si>
   <si>
+    <t>Baladiyyat Al Mehalla</t>
+  </si>
+  <si>
     <t>Al Ahly</t>
-  </si>
-  <si>
-    <t>Baladiyyat Al Mehalla</t>
   </si>
   <si>
     <t>Masr</t>
@@ -901,13 +901,13 @@
         <v>4.75</v>
       </c>
       <c r="J2">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="K2">
-        <v>3.22</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>4.08</v>
+        <v>4.25</v>
       </c>
       <c r="M2">
         <v>1.48</v>
@@ -928,10 +928,10 @@
         <v>2.75</v>
       </c>
       <c r="S2">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="T2">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="U2">
         <v>2</v>
@@ -949,10 +949,10 @@
         <v>1.83</v>
       </c>
       <c r="Z2">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AA2">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AB2">
         <v>1.43</v>
@@ -964,43 +964,43 @@
         <v>2.43</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1032,13 +1032,13 @@
         <v>3.4</v>
       </c>
       <c r="J3">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="K3">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L3">
-        <v>2.77</v>
+        <v>2.6</v>
       </c>
       <c r="M3">
         <v>1.44</v>
@@ -1059,10 +1059,10 @@
         <v>2.92</v>
       </c>
       <c r="S3">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="T3">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U3">
         <v>1.83</v>
@@ -1080,10 +1080,10 @@
         <v>1.52</v>
       </c>
       <c r="Z3">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AA3">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AB3">
         <v>1.46</v>
@@ -1163,13 +1163,13 @@
         <v>7</v>
       </c>
       <c r="J4">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="K4">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="L4">
-        <v>7.65</v>
+        <v>8.5</v>
       </c>
       <c r="M4">
         <v>1.44</v>
@@ -1190,7 +1190,7 @@
         <v>3.04</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T4">
         <v>1.72</v>
@@ -1211,10 +1211,10 @@
         <v>3.16</v>
       </c>
       <c r="Z4">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AA4">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AB4">
         <v>1.89</v>
@@ -1297,10 +1297,10 @@
         <v>2.4</v>
       </c>
       <c r="K5">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
       <c r="L5">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1321,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="T5">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AA5">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AB5">
         <v>1.15</v>
@@ -1425,13 +1425,13 @@
         <v>1.95</v>
       </c>
       <c r="J6">
-        <v>6.84</v>
+        <v>7</v>
       </c>
       <c r="K6">
-        <v>4.23</v>
+        <v>4.2</v>
       </c>
       <c r="L6">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M6">
         <v>1.33</v>
@@ -1452,10 +1452,10 @@
         <v>3.73</v>
       </c>
       <c r="S6">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="T6">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="U6">
         <v>1.91</v>
@@ -1473,10 +1473,10 @@
         <v>1.17</v>
       </c>
       <c r="Z6">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AA6">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AB6">
         <v>1.55</v>
@@ -1556,13 +1556,13 @@
         <v>7.5</v>
       </c>
       <c r="J7">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="K7">
-        <v>4.24</v>
+        <v>4.7</v>
       </c>
       <c r="L7">
-        <v>6.62</v>
+        <v>7.5</v>
       </c>
       <c r="M7">
         <v>1.36</v>
@@ -1583,10 +1583,10 @@
         <v>3.6</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="T7">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="U7">
         <v>2.2</v>
@@ -1604,10 +1604,10 @@
         <v>3</v>
       </c>
       <c r="Z7">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AA7">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AB7">
         <v>2.03</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="8" spans="1:43">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2">
         <v>45385</v>
@@ -1669,7 +1669,7 @@
         <v>56</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>72</v>
@@ -1678,120 +1678,120 @@
         <v>99</v>
       </c>
       <c r="G8">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H8">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="J8">
-        <v>1.55</v>
+        <v>3.05</v>
       </c>
       <c r="K8">
-        <v>3.68</v>
+        <v>2.85</v>
       </c>
       <c r="L8">
-        <v>5.8</v>
+        <v>2.3</v>
       </c>
       <c r="M8">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="N8">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="O8">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="P8">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q8">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="R8">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="S8">
-        <v>1.95</v>
+        <v>2.48</v>
       </c>
       <c r="T8">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="V8">
         <v>1.73</v>
       </c>
       <c r="W8">
-        <v>1.09</v>
+        <v>1.42</v>
       </c>
       <c r="X8">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="Y8">
-        <v>2.35</v>
+        <v>1.45</v>
       </c>
       <c r="Z8">
-        <v>2.46</v>
+        <v>1.07</v>
       </c>
       <c r="AA8">
-        <v>1.69</v>
+        <v>0.79</v>
       </c>
       <c r="AB8">
-        <v>2.41</v>
+        <v>1.18</v>
       </c>
       <c r="AC8">
-        <v>1.72</v>
+        <v>1.31</v>
       </c>
       <c r="AD8">
-        <v>4.13</v>
+        <v>2.49</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="9" spans="1:43">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2">
         <v>45385</v>
@@ -1800,7 +1800,7 @@
         <v>56</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
         <v>73</v>
@@ -1809,120 +1809,120 @@
         <v>100</v>
       </c>
       <c r="G9">
-        <v>3.1</v>
+        <v>1.62</v>
       </c>
       <c r="H9">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="I9">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="J9">
-        <v>2.42</v>
+        <v>1.2</v>
       </c>
       <c r="K9">
-        <v>2.91</v>
+        <v>6.5</v>
       </c>
       <c r="L9">
-        <v>2.92</v>
+        <v>15</v>
       </c>
       <c r="M9">
+        <v>1.29</v>
+      </c>
+      <c r="N9">
+        <v>3.5</v>
+      </c>
+      <c r="O9">
+        <v>1.02</v>
+      </c>
+      <c r="P9">
+        <v>19</v>
+      </c>
+      <c r="Q9">
+        <v>1.19</v>
+      </c>
+      <c r="R9">
+        <v>4.75</v>
+      </c>
+      <c r="S9">
+        <v>1.58</v>
+      </c>
+      <c r="T9">
+        <v>2.25</v>
+      </c>
+      <c r="U9">
+        <v>2.38</v>
+      </c>
+      <c r="V9">
         <v>1.53</v>
       </c>
-      <c r="N9">
-        <v>2.35</v>
-      </c>
-      <c r="O9">
+      <c r="W9">
+        <v>1.02</v>
+      </c>
+      <c r="X9">
         <v>1.09</v>
       </c>
-      <c r="P9">
-        <v>6.5</v>
-      </c>
-      <c r="Q9">
-        <v>1.45</v>
-      </c>
-      <c r="R9">
-        <v>2.6</v>
-      </c>
-      <c r="S9">
+      <c r="Y9">
+        <v>4.33</v>
+      </c>
+      <c r="Z9">
         <v>2.33</v>
       </c>
-      <c r="T9">
-        <v>1.59</v>
-      </c>
-      <c r="U9">
-        <v>1.93</v>
-      </c>
-      <c r="V9">
-        <v>1.73</v>
-      </c>
-      <c r="W9">
-        <v>1.42</v>
-      </c>
-      <c r="X9">
-        <v>1.33</v>
-      </c>
-      <c r="Y9">
-        <v>1.45</v>
-      </c>
-      <c r="Z9">
+      <c r="AA9">
+        <v>0.93</v>
+      </c>
+      <c r="AB9">
+        <v>1.8</v>
+      </c>
+      <c r="AC9">
+        <v>1.09</v>
+      </c>
+      <c r="AD9">
+        <v>2.89</v>
+      </c>
+      <c r="AE9">
+        <v>1.07</v>
+      </c>
+      <c r="AF9">
+        <v>13</v>
+      </c>
+      <c r="AG9">
+        <v>10.7</v>
+      </c>
+      <c r="AH9">
+        <v>1.46</v>
+      </c>
+      <c r="AI9">
+        <v>2.52</v>
+      </c>
+      <c r="AJ9">
+        <v>1.85</v>
+      </c>
+      <c r="AK9">
+        <v>1.95</v>
+      </c>
+      <c r="AL9">
+        <v>2.34</v>
+      </c>
+      <c r="AM9">
+        <v>1.53</v>
+      </c>
+      <c r="AN9">
+        <v>3.14</v>
+      </c>
+      <c r="AO9">
+        <v>1.29</v>
+      </c>
+      <c r="AP9">
+        <v>4.5</v>
+      </c>
+      <c r="AQ9">
         <v>1.15</v>
-      </c>
-      <c r="AA9">
-        <v>0.62</v>
-      </c>
-      <c r="AB9">
-        <v>1.18</v>
-      </c>
-      <c r="AC9">
-        <v>1.31</v>
-      </c>
-      <c r="AD9">
-        <v>2.49</v>
-      </c>
-      <c r="AE9">
-        <v>2.18</v>
-      </c>
-      <c r="AF9">
-        <v>8.4</v>
-      </c>
-      <c r="AG9">
-        <v>1.85</v>
-      </c>
-      <c r="AH9">
-        <v>1.29</v>
-      </c>
-      <c r="AI9">
-        <v>3.14</v>
-      </c>
-      <c r="AJ9">
-        <v>1.54</v>
-      </c>
-      <c r="AK9">
-        <v>2.25</v>
-      </c>
-      <c r="AL9">
-        <v>1.92</v>
-      </c>
-      <c r="AM9">
-        <v>1.75</v>
-      </c>
-      <c r="AN9">
-        <v>2.54</v>
-      </c>
-      <c r="AO9">
-        <v>1.43</v>
-      </c>
-      <c r="AP9">
-        <v>3.48</v>
-      </c>
-      <c r="AQ9">
-        <v>1.24</v>
       </c>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2">
         <v>45385</v>
@@ -1931,7 +1931,7 @@
         <v>56</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
         <v>74</v>
@@ -1940,115 +1940,115 @@
         <v>101</v>
       </c>
       <c r="G10">
-        <v>1.62</v>
+        <v>2.2</v>
       </c>
       <c r="H10">
+        <v>2.2</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>1.53</v>
+      </c>
+      <c r="K10">
+        <v>3.75</v>
+      </c>
+      <c r="L10">
+        <v>6.5</v>
+      </c>
+      <c r="M10">
+        <v>1.4</v>
+      </c>
+      <c r="N10">
         <v>2.75</v>
       </c>
-      <c r="I10">
-        <v>11</v>
-      </c>
-      <c r="J10">
-        <v>1.16</v>
-      </c>
-      <c r="K10">
-        <v>5.4</v>
-      </c>
-      <c r="L10">
-        <v>12.17</v>
-      </c>
-      <c r="M10">
-        <v>1.29</v>
-      </c>
-      <c r="N10">
-        <v>3.5</v>
-      </c>
       <c r="O10">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P10">
-        <v>19</v>
+        <v>7.6</v>
       </c>
       <c r="Q10">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="R10">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="S10">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>1.74</v>
       </c>
       <c r="U10">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="W10">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="X10">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="Y10">
-        <v>4.33</v>
+        <v>2.35</v>
       </c>
       <c r="Z10">
-        <v>2.29</v>
+        <v>2.5</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AB10">
-        <v>1.8</v>
+        <v>2.41</v>
       </c>
       <c r="AC10">
-        <v>1.09</v>
+        <v>1.72</v>
       </c>
       <c r="AD10">
-        <v>2.89</v>
+        <v>4.13</v>
       </c>
       <c r="AE10">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="AF10">
-        <v>13</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AG10">
-        <v>10.7</v>
+        <v>3.96</v>
       </c>
       <c r="AH10">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AI10">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="AJ10">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="AK10">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="AL10">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="AM10">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="AN10">
-        <v>3.14</v>
+        <v>2.7</v>
       </c>
       <c r="AO10">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AP10">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="AQ10">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2080,13 +2080,13 @@
         <v>2</v>
       </c>
       <c r="J11">
-        <v>4.54</v>
+        <v>6.75</v>
       </c>
       <c r="K11">
-        <v>3.82</v>
+        <v>4.7</v>
       </c>
       <c r="L11">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="M11">
         <v>1.29</v>
@@ -2110,7 +2110,7 @@
         <v>1.6</v>
       </c>
       <c r="T11">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="U11">
         <v>1.7</v>
@@ -2128,10 +2128,10 @@
         <v>1.14</v>
       </c>
       <c r="Z11">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AA11">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AB11">
         <v>1.42</v>
@@ -2211,13 +2211,13 @@
         <v>13</v>
       </c>
       <c r="J12">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K12">
-        <v>9.029999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="L12">
-        <v>15.6</v>
+        <v>19</v>
       </c>
       <c r="M12">
         <v>1.17</v>
@@ -2238,10 +2238,10 @@
         <v>5.75</v>
       </c>
       <c r="S12">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T12">
-        <v>2.89</v>
+        <v>3.1</v>
       </c>
       <c r="U12">
         <v>2.42</v>
@@ -2259,10 +2259,10 @@
         <v>6.6</v>
       </c>
       <c r="Z12">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AB12">
         <v>2.46</v>
@@ -2333,115 +2333,115 @@
         <v>104</v>
       </c>
       <c r="G13">
+        <v>1.67</v>
+      </c>
+      <c r="H13">
+        <v>2.88</v>
+      </c>
+      <c r="I13">
+        <v>7.5</v>
+      </c>
+      <c r="J13">
+        <v>1.3</v>
+      </c>
+      <c r="K13">
+        <v>6</v>
+      </c>
+      <c r="L13">
+        <v>9</v>
+      </c>
+      <c r="M13">
+        <v>1.22</v>
+      </c>
+      <c r="N13">
         <v>4</v>
       </c>
-      <c r="H13">
-        <v>2.1</v>
-      </c>
-      <c r="I13">
-        <v>2.75</v>
-      </c>
-      <c r="J13">
-        <v>3.17</v>
-      </c>
-      <c r="K13">
-        <v>3.26</v>
-      </c>
-      <c r="L13">
-        <v>2.35</v>
-      </c>
-      <c r="M13">
-        <v>1.44</v>
-      </c>
-      <c r="N13">
-        <v>2.63</v>
-      </c>
       <c r="O13">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="P13">
-        <v>10.25</v>
+        <v>27</v>
       </c>
       <c r="Q13">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="R13">
-        <v>3.3</v>
+        <v>6.05</v>
       </c>
       <c r="S13">
-        <v>1.99</v>
+        <v>1.35</v>
       </c>
       <c r="T13">
-        <v>1.73</v>
+        <v>2.85</v>
       </c>
       <c r="U13">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W13">
+        <v>1.06</v>
+      </c>
+      <c r="X13">
+        <v>1.14</v>
+      </c>
+      <c r="Y13">
+        <v>3.6</v>
+      </c>
+      <c r="Z13">
+        <v>2.44</v>
+      </c>
+      <c r="AA13">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AB13">
+        <v>1.92</v>
+      </c>
+      <c r="AC13">
+        <v>1.39</v>
+      </c>
+      <c r="AD13">
+        <v>3.31</v>
+      </c>
+      <c r="AE13">
+        <v>1.12</v>
+      </c>
+      <c r="AF13">
+        <v>12</v>
+      </c>
+      <c r="AG13">
+        <v>7</v>
+      </c>
+      <c r="AH13">
+        <v>1.23</v>
+      </c>
+      <c r="AI13">
+        <v>3.56</v>
+      </c>
+      <c r="AJ13">
+        <v>1.46</v>
+      </c>
+      <c r="AK13">
+        <v>2.52</v>
+      </c>
+      <c r="AL13">
         <v>1.8</v>
       </c>
-      <c r="X13">
-        <v>1.33</v>
-      </c>
-      <c r="Y13">
-        <v>1.33</v>
-      </c>
-      <c r="Z13">
-        <v>1.36</v>
-      </c>
-      <c r="AA13">
-        <v>1.4</v>
-      </c>
-      <c r="AB13">
-        <v>1.35</v>
-      </c>
-      <c r="AC13">
-        <v>1.26</v>
-      </c>
-      <c r="AD13">
-        <v>2.61</v>
-      </c>
-      <c r="AE13">
-        <v>2.5</v>
-      </c>
-      <c r="AF13">
-        <v>8</v>
-      </c>
-      <c r="AG13">
-        <v>1.73</v>
-      </c>
-      <c r="AH13">
-        <v>1.33</v>
-      </c>
-      <c r="AI13">
-        <v>2.91</v>
-      </c>
-      <c r="AJ13">
-        <v>1.64</v>
-      </c>
-      <c r="AK13">
-        <v>2.12</v>
-      </c>
-      <c r="AL13">
-        <v>2.09</v>
-      </c>
       <c r="AM13">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="AN13">
-        <v>2.76</v>
+        <v>2.27</v>
       </c>
       <c r="AO13">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="AP13">
-        <v>3.84</v>
+        <v>3.04</v>
       </c>
       <c r="AQ13">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2464,115 +2464,115 @@
         <v>105</v>
       </c>
       <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>2.1</v>
+      </c>
+      <c r="I14">
         <v>2.75</v>
       </c>
-      <c r="H14">
-        <v>2.4</v>
-      </c>
-      <c r="I14">
+      <c r="J14">
+        <v>3.5</v>
+      </c>
+      <c r="K14">
         <v>3.4</v>
       </c>
-      <c r="J14">
-        <v>2.19</v>
-      </c>
-      <c r="K14">
-        <v>3.69</v>
-      </c>
       <c r="L14">
-        <v>3.11</v>
+        <v>2.1</v>
       </c>
       <c r="M14">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="N14">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="O14">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="P14">
-        <v>18.75</v>
+        <v>10.25</v>
       </c>
       <c r="Q14">
-        <v>1.17</v>
+        <v>1.34</v>
       </c>
       <c r="R14">
-        <v>5.1</v>
+        <v>3.3</v>
       </c>
       <c r="S14">
-        <v>1.6</v>
+        <v>2.07</v>
       </c>
       <c r="T14">
-        <v>2.21</v>
+        <v>1.76</v>
       </c>
       <c r="U14">
+        <v>1.83</v>
+      </c>
+      <c r="V14">
+        <v>1.83</v>
+      </c>
+      <c r="W14">
+        <v>1.8</v>
+      </c>
+      <c r="X14">
+        <v>1.33</v>
+      </c>
+      <c r="Y14">
+        <v>1.33</v>
+      </c>
+      <c r="Z14">
+        <v>1.27</v>
+      </c>
+      <c r="AA14">
         <v>1.5</v>
       </c>
-      <c r="V14">
+      <c r="AB14">
+        <v>1.35</v>
+      </c>
+      <c r="AC14">
+        <v>1.26</v>
+      </c>
+      <c r="AD14">
+        <v>2.61</v>
+      </c>
+      <c r="AE14">
         <v>2.5</v>
-      </c>
-      <c r="W14">
-        <v>1.4</v>
-      </c>
-      <c r="X14">
-        <v>1.3</v>
-      </c>
-      <c r="Y14">
-        <v>1.75</v>
-      </c>
-      <c r="Z14">
-        <v>1.6</v>
-      </c>
-      <c r="AA14">
-        <v>1.4</v>
-      </c>
-      <c r="AB14">
-        <v>1.45</v>
-      </c>
-      <c r="AC14">
-        <v>1.42</v>
-      </c>
-      <c r="AD14">
-        <v>2.87</v>
-      </c>
-      <c r="AE14">
-        <v>1.8</v>
       </c>
       <c r="AF14">
         <v>8</v>
       </c>
       <c r="AG14">
-        <v>2.3</v>
+        <v>1.73</v>
       </c>
       <c r="AH14">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AI14">
-        <v>3.42</v>
+        <v>2.91</v>
       </c>
       <c r="AJ14">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="AK14">
-        <v>2.47</v>
+        <v>2.12</v>
       </c>
       <c r="AL14">
-        <v>1.85</v>
+        <v>2.09</v>
       </c>
       <c r="AM14">
-        <v>1.89</v>
+        <v>1.69</v>
       </c>
       <c r="AN14">
-        <v>2.36</v>
+        <v>2.76</v>
       </c>
       <c r="AO14">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="AP14">
-        <v>3.18</v>
+        <v>3.84</v>
       </c>
       <c r="AQ14">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2595,115 +2595,115 @@
         <v>106</v>
       </c>
       <c r="G15">
-        <v>1.67</v>
+        <v>2.75</v>
       </c>
       <c r="H15">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="I15">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="J15">
-        <v>1.23</v>
+        <v>2.15</v>
       </c>
       <c r="K15">
-        <v>6.76</v>
+        <v>3.7</v>
       </c>
       <c r="L15">
-        <v>9.869999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="M15">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O15">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="P15">
-        <v>27</v>
+        <v>18.75</v>
       </c>
       <c r="Q15">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="R15">
-        <v>6.05</v>
+        <v>5.1</v>
       </c>
       <c r="S15">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="T15">
-        <v>2.78</v>
+        <v>2.21</v>
       </c>
       <c r="U15">
+        <v>1.5</v>
+      </c>
+      <c r="V15">
+        <v>2.5</v>
+      </c>
+      <c r="W15">
+        <v>1.4</v>
+      </c>
+      <c r="X15">
+        <v>1.3</v>
+      </c>
+      <c r="Y15">
+        <v>1.75</v>
+      </c>
+      <c r="Z15">
+        <v>1.5</v>
+      </c>
+      <c r="AA15">
+        <v>1.5</v>
+      </c>
+      <c r="AB15">
+        <v>1.45</v>
+      </c>
+      <c r="AC15">
+        <v>1.42</v>
+      </c>
+      <c r="AD15">
+        <v>2.87</v>
+      </c>
+      <c r="AE15">
         <v>1.8</v>
       </c>
-      <c r="V15">
-        <v>1.91</v>
-      </c>
-      <c r="W15">
-        <v>1.06</v>
-      </c>
-      <c r="X15">
-        <v>1.14</v>
-      </c>
-      <c r="Y15">
-        <v>3.6</v>
-      </c>
-      <c r="Z15">
-        <v>2.4</v>
-      </c>
-      <c r="AA15">
-        <v>0.6</v>
-      </c>
-      <c r="AB15">
-        <v>1.92</v>
-      </c>
-      <c r="AC15">
-        <v>1.39</v>
-      </c>
-      <c r="AD15">
-        <v>3.31</v>
-      </c>
-      <c r="AE15">
-        <v>1.12</v>
-      </c>
       <c r="AF15">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AG15">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="AH15">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AI15">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="AJ15">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="AK15">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="AL15">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AM15">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="AN15">
-        <v>2.27</v>
+        <v>2.36</v>
       </c>
       <c r="AO15">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AP15">
-        <v>3.04</v>
+        <v>3.18</v>
       </c>
       <c r="AQ15">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -2735,13 +2735,13 @@
         <v>5</v>
       </c>
       <c r="J16">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="K16">
-        <v>4.42</v>
+        <v>4.5</v>
       </c>
       <c r="L16">
-        <v>6.77</v>
+        <v>6</v>
       </c>
       <c r="M16">
         <v>1.3</v>
@@ -2762,10 +2762,10 @@
         <v>4.33</v>
       </c>
       <c r="S16">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="T16">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="U16">
         <v>1.7</v>
@@ -2783,10 +2783,10 @@
         <v>2.38</v>
       </c>
       <c r="Z16">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AA16">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AB16">
         <v>1.59</v>
@@ -2866,10 +2866,10 @@
         <v>3.4</v>
       </c>
       <c r="J17">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="K17">
-        <v>3.01</v>
+        <v>3.25</v>
       </c>
       <c r="L17">
         <v>2.65</v>
@@ -2893,10 +2893,10 @@
         <v>3.3</v>
       </c>
       <c r="S17">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="T17">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U17">
         <v>1.8</v>
@@ -2914,10 +2914,10 @@
         <v>1.52</v>
       </c>
       <c r="Z17">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AA17">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AB17">
         <v>1.89</v>
@@ -2979,7 +2979,7 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
         <v>82</v>
@@ -2988,115 +2988,115 @@
         <v>109</v>
       </c>
       <c r="G18">
-        <v>1.44</v>
+        <v>2.3</v>
       </c>
       <c r="H18">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="I18">
-        <v>11</v>
+        <v>4.33</v>
       </c>
       <c r="J18">
-        <v>1.16</v>
+        <v>1.77</v>
       </c>
       <c r="K18">
-        <v>5.83</v>
+        <v>3.8</v>
       </c>
       <c r="L18">
-        <v>15.06</v>
+        <v>4.4</v>
       </c>
       <c r="M18">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="N18">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="O18">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P18">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="Q18">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="R18">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="S18">
+        <v>1.75</v>
+      </c>
+      <c r="T18">
+        <v>2.02</v>
+      </c>
+      <c r="U18">
+        <v>1.7</v>
+      </c>
+      <c r="V18">
+        <v>2.05</v>
+      </c>
+      <c r="W18">
+        <v>1.2</v>
+      </c>
+      <c r="X18">
         <v>1.25</v>
       </c>
-      <c r="T18">
-        <v>3.71</v>
-      </c>
-      <c r="U18">
-        <v>1.91</v>
-      </c>
-      <c r="V18">
-        <v>1.91</v>
-      </c>
-      <c r="W18">
-        <v>1.01</v>
-      </c>
-      <c r="X18">
-        <v>1.06</v>
-      </c>
       <c r="Y18">
-        <v>5.7</v>
+        <v>2</v>
       </c>
       <c r="Z18">
-        <v>2.5</v>
+        <v>1.87</v>
       </c>
       <c r="AA18">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AB18">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AC18">
-        <v>1.02</v>
+        <v>1.53</v>
       </c>
       <c r="AD18">
-        <v>3.02</v>
+        <v>3.09</v>
       </c>
       <c r="AE18">
-        <v>1.15</v>
+        <v>1.51</v>
       </c>
       <c r="AF18">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="AG18">
-        <v>8</v>
+        <v>3.07</v>
       </c>
       <c r="AH18">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="AI18">
-        <v>5.3</v>
+        <v>2.91</v>
       </c>
       <c r="AJ18">
-        <v>1.21</v>
+        <v>1.64</v>
       </c>
       <c r="AK18">
-        <v>3.6</v>
+        <v>2.12</v>
       </c>
       <c r="AL18">
-        <v>1.38</v>
+        <v>2.09</v>
       </c>
       <c r="AM18">
-        <v>2.65</v>
+        <v>1.69</v>
       </c>
       <c r="AN18">
-        <v>1.65</v>
+        <v>2.76</v>
       </c>
       <c r="AO18">
-        <v>2.07</v>
+        <v>1.39</v>
       </c>
       <c r="AP18">
-        <v>2.02</v>
+        <v>3.84</v>
       </c>
       <c r="AQ18">
-        <v>1.68</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -3110,7 +3110,7 @@
         <v>61</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
         <v>83</v>
@@ -3119,115 +3119,115 @@
         <v>110</v>
       </c>
       <c r="G19">
-        <v>3.1</v>
+        <v>1.73</v>
       </c>
       <c r="H19">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J19">
-        <v>2.43</v>
+        <v>1.33</v>
       </c>
       <c r="K19">
-        <v>3.62</v>
+        <v>5.75</v>
       </c>
       <c r="L19">
-        <v>2.43</v>
+        <v>8.25</v>
       </c>
       <c r="M19">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="N19">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O19">
         <v>1.02</v>
       </c>
       <c r="P19">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q19">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="R19">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="S19">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="T19">
-        <v>2.3</v>
+        <v>2.61</v>
       </c>
       <c r="U19">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="V19">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W19">
-        <v>1.55</v>
+        <v>1.05</v>
       </c>
       <c r="X19">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="Y19">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z19">
-        <v>1.13</v>
+        <v>2.07</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AB19">
-        <v>1.52</v>
+        <v>2.05</v>
       </c>
       <c r="AC19">
-        <v>1.45</v>
+        <v>1.16</v>
       </c>
       <c r="AD19">
-        <v>2.97</v>
+        <v>3.21</v>
       </c>
       <c r="AE19">
-        <v>2.16</v>
+        <v>1.21</v>
       </c>
       <c r="AF19">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AG19">
-        <v>1.92</v>
+        <v>5.6</v>
       </c>
       <c r="AH19">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AI19">
-        <v>3.3</v>
+        <v>3.74</v>
       </c>
       <c r="AJ19">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AK19">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="AL19">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="AM19">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="AN19">
-        <v>2.3</v>
+        <v>2.19</v>
       </c>
       <c r="AO19">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="AP19">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AQ19">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="20" spans="1:43">
@@ -3241,7 +3241,7 @@
         <v>61</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
         <v>84</v>
@@ -3250,115 +3250,115 @@
         <v>111</v>
       </c>
       <c r="G20">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="H20">
+        <v>3.4</v>
+      </c>
+      <c r="I20">
+        <v>11</v>
+      </c>
+      <c r="J20">
+        <v>1.15</v>
+      </c>
+      <c r="K20">
+        <v>8.5</v>
+      </c>
+      <c r="L20">
+        <v>18</v>
+      </c>
+      <c r="M20">
+        <v>1.17</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>1.01</v>
+      </c>
+      <c r="P20">
+        <v>38</v>
+      </c>
+      <c r="Q20">
+        <v>1.08</v>
+      </c>
+      <c r="R20">
+        <v>9</v>
+      </c>
+      <c r="S20">
+        <v>1.4</v>
+      </c>
+      <c r="T20">
+        <v>2.66</v>
+      </c>
+      <c r="U20">
+        <v>1.91</v>
+      </c>
+      <c r="V20">
+        <v>1.91</v>
+      </c>
+      <c r="W20">
+        <v>1.01</v>
+      </c>
+      <c r="X20">
+        <v>1.06</v>
+      </c>
+      <c r="Y20">
+        <v>5.7</v>
+      </c>
+      <c r="Z20">
+        <v>2.53</v>
+      </c>
+      <c r="AA20">
+        <v>0.63</v>
+      </c>
+      <c r="AB20">
+        <v>2</v>
+      </c>
+      <c r="AC20">
+        <v>1.02</v>
+      </c>
+      <c r="AD20">
+        <v>3.02</v>
+      </c>
+      <c r="AE20">
+        <v>1.15</v>
+      </c>
+      <c r="AF20">
+        <v>14</v>
+      </c>
+      <c r="AG20">
+        <v>8</v>
+      </c>
+      <c r="AH20">
+        <v>1.11</v>
+      </c>
+      <c r="AI20">
+        <v>5.3</v>
+      </c>
+      <c r="AJ20">
+        <v>1.21</v>
+      </c>
+      <c r="AK20">
+        <v>3.6</v>
+      </c>
+      <c r="AL20">
+        <v>1.38</v>
+      </c>
+      <c r="AM20">
         <v>2.65</v>
       </c>
-      <c r="I20">
-        <v>6</v>
-      </c>
-      <c r="J20">
-        <v>1.28</v>
-      </c>
-      <c r="K20">
-        <v>5.4</v>
-      </c>
-      <c r="L20">
-        <v>7.84</v>
-      </c>
-      <c r="M20">
-        <v>1.22</v>
-      </c>
-      <c r="N20">
-        <v>4</v>
-      </c>
-      <c r="O20">
-        <v>1.02</v>
-      </c>
-      <c r="P20">
-        <v>13</v>
-      </c>
-      <c r="Q20">
-        <v>1.14</v>
-      </c>
-      <c r="R20">
-        <v>5</v>
-      </c>
-      <c r="S20">
-        <v>1.45</v>
-      </c>
-      <c r="T20">
-        <v>2.56</v>
-      </c>
-      <c r="U20">
-        <v>1.73</v>
-      </c>
-      <c r="V20">
-        <v>2</v>
-      </c>
-      <c r="W20">
-        <v>1.05</v>
-      </c>
-      <c r="X20">
-        <v>1.14</v>
-      </c>
-      <c r="Y20">
-        <v>3.4</v>
-      </c>
-      <c r="Z20">
-        <v>2.21</v>
-      </c>
-      <c r="AA20">
-        <v>0.57</v>
-      </c>
-      <c r="AB20">
-        <v>2.05</v>
-      </c>
-      <c r="AC20">
-        <v>1.16</v>
-      </c>
-      <c r="AD20">
-        <v>3.21</v>
-      </c>
-      <c r="AE20">
-        <v>1.21</v>
-      </c>
-      <c r="AF20">
-        <v>11</v>
-      </c>
-      <c r="AG20">
-        <v>5.6</v>
-      </c>
-      <c r="AH20">
-        <v>1.21</v>
-      </c>
-      <c r="AI20">
-        <v>3.74</v>
-      </c>
-      <c r="AJ20">
-        <v>1.42</v>
-      </c>
-      <c r="AK20">
-        <v>2.65</v>
-      </c>
-      <c r="AL20">
-        <v>1.75</v>
-      </c>
-      <c r="AM20">
-        <v>2.01</v>
-      </c>
       <c r="AN20">
-        <v>2.19</v>
+        <v>1.65</v>
       </c>
       <c r="AO20">
-        <v>1.6</v>
+        <v>2.07</v>
       </c>
       <c r="AP20">
-        <v>2.88</v>
+        <v>2.02</v>
       </c>
       <c r="AQ20">
-        <v>1.34</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="21" spans="1:43">
@@ -3372,7 +3372,7 @@
         <v>61</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
         <v>85</v>
@@ -3381,115 +3381,115 @@
         <v>112</v>
       </c>
       <c r="G21">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H21">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="I21">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="J21">
-        <v>1.74</v>
+        <v>2.4</v>
       </c>
       <c r="K21">
-        <v>3.68</v>
+        <v>3.7</v>
       </c>
       <c r="L21">
-        <v>4.11</v>
+        <v>2.75</v>
       </c>
       <c r="M21">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="N21">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O21">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P21">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Q21">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="R21">
-        <v>3.75</v>
+        <v>5.2</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="T21">
-        <v>2.02</v>
+        <v>2.35</v>
       </c>
       <c r="U21">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="V21">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="W21">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="X21">
         <v>1.25</v>
       </c>
       <c r="Y21">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="Z21">
-        <v>1.93</v>
+        <v>1.13</v>
       </c>
       <c r="AA21">
         <v>1</v>
       </c>
       <c r="AB21">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AC21">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AD21">
-        <v>3.09</v>
+        <v>2.97</v>
       </c>
       <c r="AE21">
-        <v>1.51</v>
+        <v>2.16</v>
       </c>
       <c r="AF21">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG21">
-        <v>3.07</v>
+        <v>1.92</v>
       </c>
       <c r="AH21">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AI21">
-        <v>2.91</v>
+        <v>3.3</v>
       </c>
       <c r="AJ21">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="AK21">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="AL21">
-        <v>2.09</v>
+        <v>1.81</v>
       </c>
       <c r="AM21">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="AN21">
-        <v>2.76</v>
+        <v>2.3</v>
       </c>
       <c r="AO21">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="AP21">
-        <v>3.84</v>
+        <v>3</v>
       </c>
       <c r="AQ21">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -3521,13 +3521,13 @@
         <v>2.4</v>
       </c>
       <c r="J22">
-        <v>4.11</v>
+        <v>3.5</v>
       </c>
       <c r="K22">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L22">
-        <v>1.71</v>
+        <v>1.95</v>
       </c>
       <c r="M22">
         <v>1.29</v>
@@ -3548,10 +3548,10 @@
         <v>4.5</v>
       </c>
       <c r="S22">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="T22">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U22">
         <v>1.57</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2">
         <v>45385</v>
@@ -3652,13 +3652,13 @@
         <v>7.5</v>
       </c>
       <c r="J23">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="K23">
-        <v>5.17</v>
+        <v>6.25</v>
       </c>
       <c r="L23">
-        <v>7.03</v>
+        <v>9</v>
       </c>
       <c r="M23">
         <v>1.2</v>
@@ -3679,10 +3679,10 @@
         <v>7</v>
       </c>
       <c r="S23">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="T23">
-        <v>2.94</v>
+        <v>2.37</v>
       </c>
       <c r="U23">
         <v>1.75</v>
@@ -3831,19 +3831,19 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0.86</v>
+        <v>1.75</v>
       </c>
       <c r="AA24">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="AB24">
-        <v>1.15</v>
+        <v>1.74</v>
       </c>
       <c r="AC24">
-        <v>1.9</v>
+        <v>1.28</v>
       </c>
       <c r="AD24">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -3962,19 +3962,19 @@
         <v>0</v>
       </c>
       <c r="Z25">
+        <v>0.86</v>
+      </c>
+      <c r="AA25">
         <v>1.75</v>
       </c>
-      <c r="AA25">
-        <v>1.29</v>
-      </c>
       <c r="AB25">
-        <v>1.74</v>
+        <v>1.15</v>
       </c>
       <c r="AC25">
-        <v>1.28</v>
+        <v>1.9</v>
       </c>
       <c r="AD25">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="AE25">
         <v>0</v>
@@ -4036,22 +4036,22 @@
         <v>117</v>
       </c>
       <c r="G26">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="I26">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J26">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K26">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L26">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M26">
         <v>1.42</v>
@@ -4072,16 +4072,16 @@
         <v>2.9</v>
       </c>
       <c r="S26">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T26">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="U26">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V26">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W26">
         <v>1.18</v>
@@ -4108,13 +4108,13 @@
         <v>3.01</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AH26">
         <v>1.33</v>
@@ -4129,7 +4129,7 @@
         <v>2.33</v>
       </c>
       <c r="AL26">
-        <v>1.97</v>
+        <v>2.38</v>
       </c>
       <c r="AM26">
         <v>1.83</v>
@@ -4173,16 +4173,16 @@
         <v>1.91</v>
       </c>
       <c r="I27">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J27">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="K27">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>2.74</v>
+        <v>2.5</v>
       </c>
       <c r="M27">
         <v>1.51</v>
@@ -4197,10 +4197,10 @@
         <v>6.5</v>
       </c>
       <c r="Q27">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="R27">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S27">
         <v>2.48</v>
@@ -4239,13 +4239,13 @@
         <v>2.65</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AH27">
         <v>1.33</v>
@@ -4260,7 +4260,7 @@
         <v>2.34</v>
       </c>
       <c r="AL27">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="AM27">
         <v>1.84</v>
@@ -4301,19 +4301,19 @@
         <v>3.4</v>
       </c>
       <c r="H28">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="I28">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J28">
-        <v>2.53</v>
+        <v>2.6</v>
       </c>
       <c r="K28">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>2.84</v>
+        <v>2.6</v>
       </c>
       <c r="M28">
         <v>1.52</v>
@@ -4340,10 +4340,10 @@
         <v>1.52</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V28">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W28">
         <v>1.45</v>
@@ -4370,13 +4370,13 @@
         <v>2.75</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AH28">
         <v>1.29</v>
@@ -4391,7 +4391,7 @@
         <v>2.52</v>
       </c>
       <c r="AL28">
-        <v>1.84</v>
+        <v>2.1</v>
       </c>
       <c r="AM28">
         <v>1.96</v>
